--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1E71E6-C051-4BC1-943D-85C7F86312C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60F8A6E-118A-4A31-999A-7AEDBC65890D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -12893,12 +12893,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12908,6 +12902,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21408,7 +21408,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -21637,8 +21637,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -21685,10 +21685,10 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="81"/>
       <c r="E3" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -21699,10 +21699,10 @@
       <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="81"/>
       <c r="E4" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -21713,9 +21713,7 @@
       <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -21727,9 +21725,7 @@
       <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -21762,9 +21758,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="81"/>
-      <c r="D10" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5">
@@ -21773,9 +21767,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="81"/>
-      <c r="D11" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5">

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60F8A6E-118A-4A31-999A-7AEDBC65890D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E906618-ABE9-47AE-B2AE-BE04093D5583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1055374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.74188087463378904</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.7340000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.54990000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.2286</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.33799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.49099999998509886</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>0.99999999998509881</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.54730635039</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.54730635039</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.9347037484885126E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.50025217970728575</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>3.5100000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.49335999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21143999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.29519999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,13 +16261,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2019</v>
       </c>
       <c r="B2" s="74">
-        <v>212120</v>
+        <v>212339</v>
       </c>
       <c r="C2" s="75">
         <v>499000</v>
@@ -16287,20 +16287,20 @@
       </c>
       <c r="H2" s="22">
         <f t="shared" ref="H2:H40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>246552.8283486935</v>
+        <v>246807.37798761655</v>
       </c>
       <c r="I2" s="22">
         <f>G2-H2</f>
-        <v>2626447.1716513066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+        <v>2626192.6220123833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2020</v>
       </c>
       <c r="B3" s="74">
-        <v>210924</v>
+        <v>212120</v>
       </c>
       <c r="C3" s="75">
         <v>501000</v>
@@ -16320,20 +16320,20 @@
       </c>
       <c r="H3" s="22">
         <f t="shared" si="1"/>
-        <v>245162.6851151227</v>
+        <v>246552.8283486935</v>
       </c>
       <c r="I3" s="22">
         <f t="shared" ref="I3:I15" si="3">G3-H3</f>
-        <v>2652837.3148848773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+        <v>2651447.1716513066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
       <c r="B4" s="74">
-        <v>210555</v>
+        <v>210924</v>
       </c>
       <c r="C4" s="75">
         <v>502000</v>
@@ -16353,20 +16353,20 @@
       </c>
       <c r="H4" s="22">
         <f t="shared" si="1"/>
-        <v>244733.78640844408</v>
+        <v>245162.6851151227</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" si="3"/>
-        <v>2677266.2135915561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+        <v>2676837.3148848773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
       <c r="B5" s="74">
-        <v>205749.42960000006</v>
+        <v>210555</v>
       </c>
       <c r="C5" s="75">
         <v>503000</v>
@@ -16386,14 +16386,14 @@
       </c>
       <c r="H5" s="22">
         <f t="shared" si="1"/>
-        <v>239148.14161328689</v>
+        <v>244733.78640844408</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="3"/>
-        <v>2705851.8583867131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+        <v>2700266.2135915561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16426,7 @@
         <v>2729546.2328396928</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16459,7 @@
         <v>2752370.1453954992</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16492,7 @@
         <v>2776820.7482364592</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16525,7 @@
         <v>2800368.1031867522</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16558,7 @@
         <v>2822029.8311254927</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16591,7 @@
         <v>2841784.2104834933</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16624,7 @@
         <v>2857648.276327</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>1774485.7623759615</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18787,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20431,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2019) attributable to cause</v>
@@ -20449,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1.30875965E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.32118576809106147</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>4.7663566897174124E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>6.7183669167983628E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.26597109984175876</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>7.9322187699953927E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0.11567152054124144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0.168443557083781</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>5.57574325609159E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.123433050809554</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>3.7885113863223997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>2.1159523602129199E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>6.2762247081276E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>7.3229531232661099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>7.4847855940266602E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0.24951644048768501</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.45268715763198919</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>5.8899999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.21679999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.17760000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0.25490000000223517</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20870,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2019)</v>
@@ -20900,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.74340000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20944,7 @@
         <v>0.19589999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20965,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20986,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21002,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>9.2899999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>7.6211999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>0.29823</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21244,14 @@
         <v>0.14919020755410384</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21277,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2019)</v>
@@ -21307,7 +21307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21412,13 +21412,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21460,10 +21460,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21488,10 +21488,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21511,7 +21511,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21528,7 +21528,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21545,7 +21545,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21565,7 +21565,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21582,7 +21582,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21607,7 +21607,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21641,7 +21641,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21649,7 +21649,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21694,7 +21694,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21708,7 +21708,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21720,7 +21720,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21732,7 +21732,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21741,7 +21741,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21752,7 +21752,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21761,7 +21761,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21770,7 +21770,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21801,7 +21801,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21827,7 +21827,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21839,7 +21839,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21851,7 +21851,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21863,7 +21863,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21892,7 +21892,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21900,7 +21900,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21914,7 +21914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21959,7 +21959,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21969,7 +21969,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22038,7 +22038,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22293,7 +22293,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22600,7 +22600,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E906618-ABE9-47AE-B2AE-BE04093D5583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F81D3F-31E4-46AB-8BD5-1AEC9FE6A340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1055374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.74188087463378904</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.7340000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.54990000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.2286</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.33799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.49099999998509886</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>0.99999999998509881</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.54730635039</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.54730635039</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.9347037484885126E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.50025217970728575</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>3.5100000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.49335999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21143999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.29519999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12893,6 +12893,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12902,12 +12908,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2019</v>
@@ -16294,7 +16294,7 @@
         <v>2626192.6220123833</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2020</v>
@@ -16327,7 +16327,7 @@
         <v>2651447.1716513066</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -16360,7 +16360,7 @@
         <v>2676837.3148848773</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16393,7 +16393,7 @@
         <v>2700266.2135915561</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16426,7 @@
         <v>2729546.2328396928</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16459,7 @@
         <v>2752370.1453954992</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16492,7 @@
         <v>2776820.7482364592</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16525,7 @@
         <v>2800368.1031867522</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16558,7 @@
         <v>2822029.8311254927</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16591,7 @@
         <v>2841784.2104834933</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16624,7 @@
         <v>2857648.276327</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>1774485.7623759615</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18787,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20431,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2019) attributable to cause</v>
@@ -20449,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1.30875965E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.32118576809106147</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>4.7663566897174124E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>6.7183669167983628E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.26597109984175876</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>7.9322187699953927E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0.11567152054124144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0.168443557083781</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>5.57574325609159E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.123433050809554</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>3.7885113863223997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>2.1159523602129199E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>6.2762247081276E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>7.3229531232661099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>7.4847855940266602E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0.24951644048768501</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.45268715763198919</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>5.8899999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.21679999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.17760000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0.25490000000223517</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20870,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2019)</v>
@@ -20900,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="77">
-        <v>0.74921119567494587</v>
+        <v>0.74209999999999998</v>
       </c>
       <c r="D2" s="77">
         <v>0.74209999999999998</v>
@@ -20923,7 +20923,7 @@
         <v>0.74340000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20944,7 @@
         <v>0.19589999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20965,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20986,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21002,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>9.2899999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>7.6211999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>0.29823</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21244,14 @@
         <v>0.14919020755410384</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21277,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2019)</v>
@@ -21307,7 +21307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21408,17 +21408,17 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21426,16 +21426,19 @@
         <v>145</v>
       </c>
       <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
         <v>2020</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2021</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21460,10 +21463,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21488,10 +21491,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21511,7 +21514,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21528,7 +21531,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21545,7 +21548,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21565,7 +21568,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21582,7 +21585,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21607,7 +21610,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21637,11 +21640,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21649,7 +21652,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21666,7 +21669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21680,7 +21683,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21694,7 +21697,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21708,7 +21711,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21720,7 +21723,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21732,7 +21735,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21741,7 +21744,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21752,7 +21755,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21761,7 +21764,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21770,7 +21773,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21781,7 +21784,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21792,7 +21795,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21801,7 +21804,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21815,7 +21818,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21827,7 +21830,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21839,7 +21842,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21851,7 +21854,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21863,7 +21866,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21892,7 +21895,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21900,7 +21903,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21914,7 +21917,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21928,7 +21931,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21959,7 +21962,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21969,7 +21972,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21987,7 +21990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21998,13 +22001,13 @@
         <v>0.95</v>
       </c>
       <c r="D2" s="86">
-        <v>74.474474607257392</v>
+        <v>78.94</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22015,13 +22018,13 @@
         <v>0.95</v>
       </c>
       <c r="D3" s="86">
-        <v>40.248726453010633</v>
+        <v>42.66</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22032,13 +22035,13 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>672.22235357576801</v>
+        <v>712.56</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22049,13 +22052,13 @@
         <v>0.95</v>
       </c>
       <c r="D5" s="86">
-        <v>1.3713787431614179</v>
+        <v>1.45</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22066,13 +22069,13 @@
         <v>0.95</v>
       </c>
       <c r="D6" s="86">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22083,13 +22086,13 @@
         <v>0.95</v>
       </c>
       <c r="D7" s="86">
-        <v>0.3715978850511571</v>
+        <v>0.39</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22100,13 +22103,13 @@
         <v>0.95</v>
       </c>
       <c r="D8" s="86">
-        <v>0.3715978850511571</v>
+        <v>0.39</v>
       </c>
       <c r="E8" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22117,13 +22120,13 @@
         <v>0.95</v>
       </c>
       <c r="D9" s="86">
-        <v>0.3715978850511571</v>
+        <v>0.39</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22134,13 +22137,13 @@
         <v>0.95</v>
       </c>
       <c r="D10" s="86">
-        <v>1.8481921674925312</v>
+        <v>1.96</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22151,13 +22154,13 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="86">
-        <v>1.8481921674925312</v>
+        <v>2.08</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22168,13 +22171,13 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="86">
-        <v>1.8481921674925312</v>
+        <v>2.08</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22185,13 +22188,13 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="86">
-        <v>1.8481921674925312</v>
+        <v>2.08</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22202,13 +22205,13 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="86">
-        <v>13.381025896806548</v>
+        <v>14.18</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22219,13 +22222,13 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="86">
-        <v>13.381025896806548</v>
+        <v>15.03</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22236,13 +22239,13 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="86">
-        <v>0.13690448396621577</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22253,13 +22256,13 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="86">
-        <v>1.0877916967018968</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22270,13 +22273,13 @@
         <v>0.95</v>
       </c>
       <c r="D18" s="86">
-        <v>15.41953529560689</v>
+        <v>16.34</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22287,13 +22290,13 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
-        <v>1.05</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22304,13 +22307,13 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22321,13 +22324,13 @@
         <v>0.95</v>
       </c>
       <c r="D21" s="86">
-        <v>14.364074593948059</v>
+        <v>15.23</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22338,13 +22341,13 @@
         <v>0.95</v>
       </c>
       <c r="D22" s="86">
-        <v>23.284771098275488</v>
+        <v>24.68</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22355,13 +22358,13 @@
         <v>0.95</v>
       </c>
       <c r="D23" s="86">
-        <v>4.5098666953578315</v>
+        <v>4.78</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22372,13 +22375,13 @@
         <v>0.95</v>
       </c>
       <c r="D24" s="86">
-        <v>18.944297777473768</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22389,13 +22392,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="86">
-        <v>18.94195928472271</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22406,13 +22409,13 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="86">
-        <v>6.0488877225973985</v>
+        <v>6.41</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22423,13 +22426,13 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="86">
-        <v>9.8140791535439593</v>
+        <v>10.4</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22440,13 +22443,13 @@
         <v>0.95</v>
       </c>
       <c r="D28" s="86">
-        <v>1.1075950419918315</v>
+        <v>1.17</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22457,13 +22460,13 @@
         <v>0.95</v>
       </c>
       <c r="D29" s="86">
-        <v>151.18141733817967</v>
+        <v>160.25</v>
       </c>
       <c r="E29" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22474,13 +22477,13 @@
         <v>0.95</v>
       </c>
       <c r="D30" s="86">
-        <v>289.448868185116</v>
+        <v>332.28</v>
       </c>
       <c r="E30" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22491,13 +22494,13 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="86">
-        <v>289.448868185116</v>
+        <v>352.22</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22508,13 +22511,13 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="86">
-        <v>2.3735892615904222</v>
+        <v>2.52</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22525,13 +22528,13 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="144">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22542,13 +22545,13 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="144">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22559,13 +22562,13 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="144">
-        <v>79</v>
+        <v>83.74</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22576,13 +22579,13 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="144">
-        <v>31</v>
+        <v>32.86</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22593,14 +22596,14 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="144">
-        <v>102</v>
+        <v>108.12</v>
       </c>
       <c r="E37" s="86" t="s">
         <v>201</v>
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22611,13 +22614,13 @@
         <v>0.95</v>
       </c>
       <c r="D38" s="86">
-        <v>2.2313586852226033</v>
+        <v>2.37</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22628,13 +22631,13 @@
         <v>0.95</v>
       </c>
       <c r="D39" s="86">
-        <v>2.3947114677048615</v>
+        <v>2.54</v>
       </c>
       <c r="E39" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F81D3F-31E4-46AB-8BD5-1AEC9FE6A340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CBB25D-40A9-4D7A-B082-12C31F667AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,17 +6249,17 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1055374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.74188087463378904</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0.7340000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6315,17 +6315,17 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6366,15 +6366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0.19980000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0.54990000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.2286</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -6406,18 +6406,18 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0.33799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.49099999998509886</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6458,20 +6458,20 @@
         <v>0.99999999998509881</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -6523,16 +6523,16 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6571,16 +6571,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.54730635039</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2.54730635039</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -6621,12 +6621,12 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.9347037484885126E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0.50025217970728575</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6682,7 +6682,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6690,7 +6690,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6737,104 +6737,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6857,85 +6857,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6955,9 +6955,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>2.1548900888000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>3.5100000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7069,7 +7069,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7082,7 +7082,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7808,7 +7808,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8180,7 +8180,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8421,7 +8421,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8882,7 +8882,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8894,7 +8894,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9501,10 +9501,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0.49335999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.21143999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.29519999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10649,7 +10649,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10664,7 +10664,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10911,7 +10911,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11412,7 +11412,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11427,7 +11427,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11649,7 +11649,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11786,7 +11786,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11794,7 +11794,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12174,14 +12174,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12532,14 +12532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12737,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12925,7 +12925,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12935,12 +12935,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12955,7 +12955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -13057,14 +13057,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13147,7 +13147,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13298,10 +13298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13322,7 +13322,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13333,12 +13333,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13404,7 +13404,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -14063,12 +14063,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14134,7 +14134,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14793,16 +14793,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14856,7 +14856,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14972,16 +14972,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15047,7 +15047,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15908,7 +15908,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -16051,12 +16051,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16120,7 +16120,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16148,7 +16148,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16225,14 +16225,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2019</v>
@@ -16294,7 +16294,7 @@
         <v>2626192.6220123833</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2020</v>
@@ -16327,7 +16327,7 @@
         <v>2651447.1716513066</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -16360,7 +16360,7 @@
         <v>2676837.3148848773</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16393,7 +16393,7 @@
         <v>2700266.2135915561</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16426,7 +16426,7 @@
         <v>2729546.2328396928</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16459,7 +16459,7 @@
         <v>2752370.1453954992</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16492,7 +16492,7 @@
         <v>2776820.7482364592</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16525,7 +16525,7 @@
         <v>2800368.1031867522</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16558,7 +16558,7 @@
         <v>2822029.8311254927</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16591,7 +16591,7 @@
         <v>2841784.2104834933</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16624,7 +16624,7 @@
         <v>2857648.276327</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>1774485.7623759615</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17301,7 +17301,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17313,12 +17313,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17380,12 +17380,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17453,12 +17453,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17479,16 +17479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17532,7 +17532,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17555,13 +17555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17611,7 +17611,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17620,7 +17620,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17866,10 +17866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17890,7 +17890,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17898,7 +17898,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17941,12 +17941,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18474,13 +18474,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18656,16 +18656,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18686,7 +18686,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18694,7 +18694,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18713,12 +18713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18787,7 +18787,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18800,7 +18800,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19210,7 +19210,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -20010,7 +20010,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -20019,7 +20019,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -20184,24 +20184,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20222,7 +20222,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20231,7 +20231,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20431,14 +20431,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2019) attributable to cause</v>
@@ -20449,7 +20449,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1.30875965E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>0.32118576809106147</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>4.7663566897174124E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>6.7183669167983628E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0.26597109984175876</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>7.9322187699953927E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0.11567152054124144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0.168443557083781</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20539,7 +20539,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20548,7 +20548,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>5.57574325609159E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.123433050809554</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>3.7885113863223997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>2.1159523602129199E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>6.2762247081276E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>7.3229531232661099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>7.4847855940266602E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>0.24951644048768501</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.45268715763198919</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20754,7 +20754,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>5.8899999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>0.21679999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.17760000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0.25490000000223517</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20870,13 +20870,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2019)</v>
@@ -20900,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.74340000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20944,7 +20944,7 @@
         <v>0.19589999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20965,7 +20965,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20986,7 +20986,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20994,7 +20994,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -21002,7 +21002,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>0.88590000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>9.2899999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>7.6211999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -21099,7 +21099,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>0.29823</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -21244,14 +21244,14 @@
         <v>0.14919020755410384</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -21277,13 +21277,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2019)</v>
@@ -21307,7 +21307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21412,13 +21412,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21463,10 +21463,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21491,10 +21491,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21514,7 +21514,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21531,7 +21531,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21548,7 +21548,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21568,7 +21568,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21585,7 +21585,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21593,24 +21593,18 @@
         <v>148</v>
       </c>
       <c r="C13" s="145">
-        <v>27.285</v>
-      </c>
-      <c r="D13" s="28">
-        <v>26.448</v>
-      </c>
-      <c r="E13" s="28">
-        <v>25.657</v>
-      </c>
-      <c r="F13" s="28">
-        <v>24.931999999999999</v>
-      </c>
+        <v>29.9</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21644,7 +21638,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21652,7 +21646,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21669,7 +21663,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21683,7 +21677,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21697,7 +21691,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21711,7 +21705,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21723,7 +21717,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21735,7 +21729,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21744,7 +21738,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21755,7 +21749,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21764,7 +21758,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21773,7 +21767,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21784,7 +21778,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21795,7 +21789,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21804,7 +21798,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21818,7 +21812,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21830,7 +21824,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21842,7 +21836,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21854,7 +21848,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21866,7 +21860,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21895,7 +21889,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21903,7 +21897,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21917,7 +21911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21931,7 +21925,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21962,7 +21956,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21972,7 +21966,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21990,7 +21984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -22007,7 +22001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -22024,7 +22018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -22041,7 +22035,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -22058,7 +22052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -22075,7 +22069,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -22092,7 +22086,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -22109,7 +22103,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -22126,7 +22120,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -22143,7 +22137,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -22160,7 +22154,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -22177,7 +22171,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -22194,7 +22188,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -22211,7 +22205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -22228,7 +22222,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -22245,7 +22239,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -22262,7 +22256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -22279,7 +22273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -22296,7 +22290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -22313,7 +22307,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -22330,7 +22324,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -22347,7 +22341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -22364,7 +22358,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -22381,7 +22375,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22398,7 +22392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22415,7 +22409,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22432,7 +22426,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22449,7 +22443,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22466,7 +22460,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22483,7 +22477,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22500,7 +22494,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22517,7 +22511,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22534,7 +22528,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22551,7 +22545,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22568,7 +22562,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22585,7 +22579,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22603,7 +22597,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22620,7 +22614,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22637,7 +22631,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CBB25D-40A9-4D7A-B082-12C31F667AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B894EFA6-DBDA-4189-81AE-91AA14FCE7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22148,7 +22148,7 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="86">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>201</v>
@@ -22165,7 +22165,7 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="86">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>201</v>
@@ -22182,7 +22182,7 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="86">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>201</v>
@@ -22216,7 +22216,7 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="86">
-        <v>15.03</v>
+        <v>14.18</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>201</v>
@@ -22233,7 +22233,7 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="86">
-        <v>0.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>201</v>
@@ -22250,7 +22250,7 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="86">
-        <v>1.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>201</v>
@@ -22284,7 +22284,7 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
-        <v>17.329999999999998</v>
+        <v>16.34</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>201</v>
@@ -22420,7 +22420,7 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="86">
-        <v>10.4</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>201</v>
@@ -22488,7 +22488,7 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="86">
-        <v>352.22</v>
+        <v>332.28</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>201</v>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B894EFA6-DBDA-4189-81AE-91AA14FCE7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13CE721-CC7F-4DEF-A8A2-47A5FF98FFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6202,7 +6202,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6738,8 +6738,12 @@
       <c r="C5" s="81"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11782,8 +11786,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12461,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12482,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12893,12 +12897,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12908,6 +12906,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21408,7 +21412,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -21952,8 +21956,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D39" sqref="D2:D39"/>
+    <sheetView topLeftCell="A13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22281,7 +22285,8 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="C19" s="85">
-        <v>0.95</v>
+        <f>(1-food_insecure)*0.95</f>
+        <v>0.93479999999999996</v>
       </c>
       <c r="D19" s="86">
         <v>16.34</v>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13CE721-CC7F-4DEF-A8A2-47A5FF98FFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBF4A31-D8EF-45A9-9543-E4268F5BED26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6857,8 +6857,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6913,7 +6913,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
@@ -11786,7 +11788,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12897,6 +12899,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12906,12 +12914,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBF4A31-D8EF-45A9-9543-E4268F5BED26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D5FE87-0777-4757-ABE3-92C81AE8154E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6537,7 +6537,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="67">
-        <v>2.2499999999999999E-2</v>
+        <v>2.2460000000000001E-2</v>
       </c>
       <c r="D45" s="17"/>
     </row>
@@ -6546,7 +6546,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="67">
-        <v>8.5199999999999998E-2</v>
+        <v>8.5239999999999996E-2</v>
       </c>
       <c r="D46" s="17"/>
     </row>
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="67">
-        <v>0.11109999999999999</v>
+        <v>0.11111</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C48" s="70">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>0.78120000000000012</v>
+        <v>0.78118999999999994</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D5FE87-0777-4757-ABE3-92C81AE8154E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3705E352-4AF5-4823-8EE9-FA793F3EF9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6857,8 +6857,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11788,7 +11788,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -11904,8 +11904,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="105">
-        <f>5.16</f>
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E5" s="105">
         <v>1</v>
@@ -11926,7 +11925,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="105">
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="105">
         <v>1</v>
@@ -11973,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F8" s="105">
         <v>1</v>
@@ -11994,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F9" s="105">
         <v>1</v>
@@ -12399,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G28" s="105">
         <v>1</v>
@@ -12420,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G29" s="105">
         <v>1</v>
@@ -12467,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12488,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12899,12 +12898,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12914,6 +12907,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17304,7 +17303,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17422,10 +17421,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="121">
         <v>1</v>
@@ -18789,8 +18788,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19004,13 +19003,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19024,10 +19023,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="121">
         <v>0</v>
@@ -19047,13 +19046,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19067,10 +19066,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12" s="121">
         <v>0</v>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3705E352-4AF5-4823-8EE9-FA793F3EF9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A2751C-3E36-43FE-8C7D-AC48BD2C2B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="66">
-        <v>0.7340000000000001</v>
+        <v>0.97900000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,8 +6678,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,8 +6747,12 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7072,7 +7076,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7363,10 +7367,11 @@
         <v>196</v>
       </c>
       <c r="C7" s="96">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0.97900000000000009</v>
       </c>
       <c r="D7" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="96">
         <v>0</v>
@@ -8885,7 +8890,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9047,7 +9052,8 @@
         <v>196</v>
       </c>
       <c r="C4" s="93">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0.97900000000000009</v>
       </c>
       <c r="D4" s="93">
         <v>0</v>
@@ -11788,7 +11794,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12898,6 +12904,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12907,12 +12919,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13323,7 +13329,7 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -18731,16 +18737,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18788,8 +18794,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18914,13 +18920,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>1.6E-2</v>
       </c>
       <c r="G5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>1.6E-2</v>
       </c>
       <c r="H5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18934,13 +18943,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H6" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18957,13 +18969,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>1.6E-2</v>
       </c>
       <c r="G7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>1.6E-2</v>
       </c>
       <c r="H7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -18977,13 +18992,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H8" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19982,7 +20000,7 @@
         <v>268</v>
       </c>
       <c r="D53" s="121">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E53" s="121">
         <v>0</v>
@@ -21958,7 +21976,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22034,7 +22052,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>712.56</v>
+        <v>39.15</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22307,7 +22325,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>
@@ -22338,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="85">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="86">
         <v>24.68</v>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A2751C-3E36-43FE-8C7D-AC48BD2C2B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC32495-CCA5-43D6-8513-D264DC609BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22052,7 +22052,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="86">
-        <v>39.15</v>
+        <v>22.8</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>201</v>
@@ -22325,7 +22325,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>201</v>

--- a/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
+++ b/analyses/inputs/Medium 2019 base/Dominican Republic_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\Medium 2019 base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC32495-CCA5-43D6-8513-D264DC609BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4144BA-D24C-45E1-9D78-A1CB82AF1C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6747,12 +6747,8 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12904,12 +12900,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12919,6 +12909,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
